--- a/biology/Botanique/Baked_beans/Baked_beans.xlsx
+++ b/biology/Botanique/Baked_beans/Baked_beans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les baked beans sont des haricots blancs cuits dans une sauce tomate aromatisée. Traditionnellement, ils sont cuisinés au four, mais ils sont souvent mijotés dans une casserole, en dépit du nom. C’est un plat typique du petit déjeuner anglais.
@@ -513,7 +525,9 @@
           <t>Variations régionales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a des différences substantielles entre les baked beans vendus par Heinz au Royaume-Uni et le même produit commercialisé aux États-Unis (Haricots végétariens Premium Qualité de Heinz). Les baked beans des États-Unis contiennent du sucre brun, contrairement aux baked beans britanniques. Le produit commercialisé aux États-Unis contient un total de 14 g de sucre par boîte, contre 7 g pour la version britannique (soit 140 contre 90 calories). Les haricots des États-Unis ont une texture plus molle et une couleur plus foncée que leur contrepartie britannique.
 Aux États-Unis, Bush's est le principal producteur de baked beans, et les décline en plusieurs saveurs. La plupart de ces produits ont une sauce très douce au goût peu prononcé.
@@ -548,7 +562,9 @@
           <t>Commercialisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En Angleterre, la marque commerciale de baked beans la plus célèbre est Heinz, et le produit s’appelle Baked Beanz. Ce nom fait référence au slogan Beanz Meanz Heinz, créé dans les années 1960, lors d’une campagne de publicité particulièrement marquante.
 Ces préparations sont faites à partir de flageolets en sauce. Au Royaume-Uni, la sauce la plus utilisée est la sauce tomate. Un plat assez proche est le pork and beans (haricots cuisinés avec du porc).
@@ -582,9 +598,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les baked beans ne sont pas un plat traditionnel britannique ; ils ont été importés des États-Unis à la fin du XIXe siècle, sous la forme d'un produit industriel, et vendues chez Fortnum &amp; Mason, à Londres[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les baked beans ne sont pas un plat traditionnel britannique ; ils ont été importés des États-Unis à la fin du XIXe siècle, sous la forme d'un produit industriel, et vendues chez Fortnum &amp; Mason, à Londres.
 </t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>Versions du plat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les cuisines traditionnelles de nombreuses régions possèdent leur recette typique à base de haricots, comme : 
 les Boston baked beans ;
